--- a/speedTest/video_download.xlsx
+++ b/speedTest/video_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Reproduction-Copa\speedTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6308FAA-B6D7-4601-AEE0-4E6B7F0DAF65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E68857-EF57-4565-BD50-AEF198C91943}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7476" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>reno</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,19 +55,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>单线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平均速率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>多线程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单个线程平均速率</t>
+    <t>单线程/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均速率/MBps</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,34 +389,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2">
+        <v>77792</v>
+      </c>
+      <c r="C2">
+        <v>1.29E-2</v>
       </c>
       <c r="D2">
         <v>200</v>
@@ -430,9 +429,15 @@
         <v>5.03</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>100653.96</v>
+      </c>
+      <c r="C3">
+        <v>9.9699999999999997E-3</v>
       </c>
       <c r="D3">
         <v>214</v>
@@ -442,7 +447,7 @@
         <v>4.7009345794392523</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -461,7 +466,7 @@
         <v>5.239583333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -480,7 +485,7 @@
         <v>3.592857142857143</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -499,7 +504,7 @@
         <v>5.1326530612244898</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -518,7 +523,7 @@
         <v>5.8150289017341041</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -537,7 +542,7 @@
         <v>5.2670157068062826</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1006</v>
       </c>
